--- a/fhir/indisa/StructureDefinition-ServicePartOf.xlsx
+++ b/fhir/indisa/StructureDefinition-ServicePartOf.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="105">
   <si>
     <t>Path</t>
   </si>
@@ -137,10 +137,10 @@
     <t>1</t>
   </si>
   <si>
-    <t>Subservicio</t>
-  </si>
-  <si>
-    <t>An Extension</t>
+    <t>Subservices</t>
+  </si>
+  <si>
+    <t>Subservices on health services.</t>
   </si>
   <si>
     <t>*</t>
@@ -180,6 +180,9 @@
 </t>
   </si>
   <si>
+    <t>An Extension</t>
+  </si>
+  <si>
     <t xml:space="preserve">value:url}
 </t>
   </si>
@@ -209,7 +212,7 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
-    <t>https://digitalware-klinic.github.io/fhir/indisa/StructureDefinition/ServicePartOf</t>
+    <t>https://digitalware-klinic.github.io/fhir/indisa/StructureDefinition-ServicePartOf</t>
   </si>
   <si>
     <t>N/A</t>
@@ -270,7 +273,7 @@
     <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
   </si>
   <si>
-    <t>https://www.digitalware.com.co/salud/fhir/extension/servicePartOf</t>
+    <t>https://digitalware-klinic.github.io/fhir/indisa/StructureDefinition-servicePartOf</t>
   </si>
   <si>
     <t>Reference.reference</t>
@@ -500,42 +503,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="27.69921875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="26.578125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.19921875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.07421875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="50.5078125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="48.68359375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="60.6171875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="39.953125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="19.8125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="58.828125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="40.69921875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.0859375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="18.703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="24.9765625" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="22.67578125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -879,7 +882,7 @@
         <v>36</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -918,19 +921,19 @@
         <v>37</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC4" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>38</v>
@@ -950,7 +953,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -973,16 +976,16 @@
         <v>37</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -990,7 +993,7 @@
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R5" t="s" s="2">
         <v>37</v>
@@ -1032,7 +1035,7 @@
         <v>37</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>39</v>
@@ -1047,12 +1050,12 @@
         <v>37</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1075,16 +1078,16 @@
         <v>37</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -1134,7 +1137,7 @@
         <v>37</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>38</v>
@@ -1146,15 +1149,15 @@
         <v>37</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -1254,11 +1257,11 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -1280,13 +1283,13 @@
         <v>52</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -1324,19 +1327,19 @@
         <v>37</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC8" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>38</v>
@@ -1356,7 +1359,7 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -1376,19 +1379,19 @@
         <v>37</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J9" t="s" s="2">
         <v>46</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -1396,7 +1399,7 @@
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R9" t="s" s="2">
         <v>37</v>
@@ -1438,7 +1441,7 @@
         <v>37</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>38</v>
@@ -1447,18 +1450,18 @@
         <v>39</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -1478,19 +1481,19 @@
         <v>37</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
@@ -1516,13 +1519,13 @@
         <v>37</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Z10" t="s" s="2">
         <v>37</v>
@@ -1540,7 +1543,7 @@
         <v>37</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>38</v>
@@ -1552,15 +1555,15 @@
         <v>37</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -1580,19 +1583,19 @@
         <v>37</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
@@ -1642,7 +1645,7 @@
         <v>37</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>38</v>
@@ -1654,15 +1657,15 @@
         <v>37</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -1682,19 +1685,19 @@
         <v>37</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J12" t="s" s="2">
         <v>46</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
@@ -1744,7 +1747,7 @@
         <v>37</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>38</v>
@@ -1756,10 +1759,10 @@
         <v>37</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/fhir/indisa/StructureDefinition-ServicePartOf.xlsx
+++ b/fhir/indisa/StructureDefinition-ServicePartOf.xlsx
@@ -503,42 +503,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="26.578125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.19921875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.07421875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="27.69921875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="48.68359375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="50.5078125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="58.828125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="40.69921875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.0859375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="18.703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="60.6171875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="39.953125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="19.8125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="22.67578125" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="24.9765625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
